--- a/2021작심두달웹크롤링/스크립트/진행스크립트.xlsx
+++ b/2021작심두달웹크롤링/스크립트/진행스크립트.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\스타트코딩\Desktop\main\python\2021작심두달웹크롤링\스크립트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\기준\코딩교육\자료정리\파이썬\2021작심두달웹크롤링\스크립트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0530E79E-C9B1-4523-AE7A-43837A096AA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BE077D-8C7A-41BC-BF4D-33E09D9BF476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="3" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
     <sheet name="관련" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2주차'!$A$1:$D$22</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -325,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -379,6 +382,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="나눔바른고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -740,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,36 +846,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,29 +1110,29 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="25" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="25"/>
+    <col min="2" max="2" width="15.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
@@ -1124,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
@@ -1146,7 +1168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="24"/>
@@ -1162,7 +1184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27" t="s">
@@ -1180,7 +1202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="24" t="s">
@@ -1198,7 +1220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="24"/>
@@ -1214,7 +1236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>48</v>
       </c>
@@ -1230,7 +1252,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
@@ -1240,7 +1262,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="24"/>
@@ -1250,7 +1272,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="24"/>
@@ -1260,7 +1282,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="24"/>
@@ -1270,7 +1292,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="24"/>
@@ -1280,7 +1302,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="24"/>
@@ -1290,7 +1312,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="24"/>
@@ -1300,7 +1322,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24"/>
@@ -1310,7 +1332,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24"/>
@@ -1320,7 +1342,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24"/>
@@ -1330,7 +1352,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
@@ -1340,7 +1362,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -1350,7 +1372,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
@@ -1360,7 +1382,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="24"/>
@@ -1370,7 +1392,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="24"/>
@@ -1380,7 +1402,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
@@ -1390,7 +1412,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
@@ -1400,7 +1422,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
@@ -1410,7 +1432,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -1420,7 +1442,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
@@ -1430,7 +1452,7 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -1440,7 +1462,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="24"/>
@@ -1450,7 +1472,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
@@ -1460,7 +1482,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="28"/>
@@ -1470,101 +1492,101 @@
       <c r="G31" s="32"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
@@ -1580,413 +1602,383 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K894"/>
+  <dimension ref="A1:J894"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="61.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="25"/>
+    <col min="1" max="1" width="22.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="50" t="s">
         <v>46</v>
       </c>
+      <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="24"/>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+    <row r="4" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="51"/>
+      <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4"/>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="24" t="s">
+    <row r="5" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="51"/>
+      <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="J5" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24"/>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="51" t="s">
         <v>49</v>
       </c>
+      <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="98.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="51" t="s">
         <v>60</v>
       </c>
+      <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:11" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="156.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="51"/>
+      <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:11" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="78.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="51"/>
+      <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:11" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="117.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="51" t="s">
+      <c r="D16" s="54" t="s">
         <v>71</v>
       </c>
+      <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="40" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="195.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="50" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="51" t="s">
+      <c r="D18" s="54" t="s">
         <v>72</v>
       </c>
+      <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="40" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="98.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="54" t="s">
         <v>73</v>
       </c>
+      <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="50"/>
+      <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="40" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="51" t="s">
+      <c r="D22" s="54" t="s">
         <v>75</v>
       </c>
+      <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="26"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1994,9 +1986,8 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2004,879 +1995,875 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="13.8" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="13.5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="30" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="56" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2889,12 +2876,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2908,8 +2895,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2922,8 +2909,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2934,7 +2921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2948,7 +2935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2962,25 +2949,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2988,7 +2975,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -3002,7 +2989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -3010,7 +2997,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -3018,7 +3005,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -3026,7 +3013,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
@@ -3034,13 +3021,13 @@
       <c r="C15" s="5"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -3048,13 +3035,13 @@
       <c r="C17" s="5"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
@@ -3062,13 +3049,13 @@
       <c r="C19" s="5"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>35</v>
       </c>
@@ -3082,7 +3069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>39</v>
       </c>

--- a/2021작심두달웹크롤링/스크립트/진행스크립트.xlsx
+++ b/2021작심두달웹크롤링/스크립트/진행스크립트.xlsx
@@ -1,31 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\기준\코딩교육\자료정리\파이썬\2021작심두달웹크롤링\스크립트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\스타트코딩\Desktop\main\python\2021작심두달웹크롤링\스크립트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BE077D-8C7A-41BC-BF4D-33E09D9BF476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491C854-1A83-4264-90C2-77FFDB7E0504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="3" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
-    <sheet name="관련" sheetId="2" r:id="rId3"/>
+    <sheet name="3주차" sheetId="4" r:id="rId3"/>
+    <sheet name="4주차" sheetId="5" r:id="rId4"/>
+    <sheet name="관련" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2주차'!$A$1:$D$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'3주차'!$A$1:$D$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'4주차'!$A$1:$D$18</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
   <si>
     <t>구분</t>
   </si>
@@ -323,12 +327,104 @@
     <t>코딩 1시간만에 배우기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">안녕하세요.  여러분 작심두달 웹크롤링 수업을 맡은 권기준 멘토 입니다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여러분들 이론과제는 잘 마무리 하셨나요? 
+파이썬 강의를 다시 한번 더 들으니 머리속에 정리 되는 느낌이 들지 않나요? 파이썬 문법 강의는 무료로 오픈된 강의가 괜찮은 게 많습니다. 
+파이썬 문법에 대해서 좀 더 자세하게 학습해보고 싶은 분들은, 
+윤인성님의 혼자공부하는 파이썬, 나도코딩님의 파이썬 강의를 추천드립니다. 링크는 수업이 끝나고 카톡방에 공지 드릴 때 남겨 드릴게요. 
+Pyautogui를 실습과제를 혹시 해오신분 있으신가요? (프로그램확인)
+Pyautogui를 하다가 저번주에 시간이 부족했죠 오늘 다시 한번 정리해드릴게요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업순서소개</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3주차 수업순서입니다. 
+첫 째로 , 커리큘럼상에는 파이썬 중급 문제 풀이가 예정되어 있었는데. 저번시간에 진행해보니 시간분배가 힘들더라구요. 그래서 파이썬 문제를 통해 이론을 응용하는 시간은 수강생분들이 스스로 학습하는 방향을 채택하기로 했습니다. 초보자를 위한 파이썬 300제를 조금 있다가 소개 해드릴게요. 
+두 번째로, Pyautogui 라이브러리 사용법을 마우스까지만 했었죠? 키보드, 메시지박스 까지 마무리해서 정리해 드리겠습니다. 
+세 번째로, 웹구조 (HTML, CSS selector) 학습 하겠습니다. 
+마지막으로, Beautifulsoup4 와 requests 모듈 사용법에 대해서 학습해 보겠습니다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자를 위한 파이썬 300제 소개</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">눈으로만 봤던 파이썬 문법을 정리할 수 있는 쉬운 문제들로 구성이 되어있습니다. 아직 내가 문법을 어떻게 활용할 지 모르겠다 싶은 분들은, 간단한 문제들을 많이 풀어보면서 정리 해보시면 좋을 것 같아요. 
+문제를 풀고 정답을 확인해보고 풀이설명이 필요하다면 아래 유튜브 영상을 참고 해 주시면 됩니다. 아시겠죠? </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyautogui 사용법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 마우스
+2. 키보드
+3. 메세지박스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹구조 소개</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>beautifulsoup 학습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 선택자 학습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests 모듈 학습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여러분들 이론과제는 잘 마무리 하셨나요? 
+네이버 지식인 크롤링 에 대한 과제를 단계별로 내드렸는데, 할만 하신 분들도 있었을 거고, 잘 안되시는 분들도 있었을 것 같아요. 오늘 한번 같이 만들어 보도록 하겠습니다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 수업순서입니다. 
+첫 째로 , 네이버 지식인 실습과제 확인 같이 고민하면서 만들어 보겠습니다. 
+두 번째로, 환율 정보를 크롤링 해오고, 간단하게  활용할 수 있는 프로그램도 제작해 볼게요. 
+세 번째로, 주식 종목의 현재가 정보를 크롤링 해오고, 그 정보를 엑셀에 저장해 보겠습니다. 
+그러기 위해선 파이썬으로 엑셀을 다루는 라이브러리인 openpyxl 의 사용법을 알아볼거구요. 
+크롤링 프로그램에 적용해 보겠습니다. 
+그냥 예제를 따라만 치는 게 아니라, 직접 고민해보고 만들어 볼 시간을 먼저 드리고 같이 풀어보도록 할게요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 예제를 만들어 보는 이유</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자, 이렇게 다양한 예제를 만들어 보는 이유가 뭘까요? 
+먼저, 사람마다 크롤링을 하고자 하는 사이트가 다 다릅니다. 
+그리고 그 사이트의 구조는 또, 다 달라요. 
+그렇기 때문에 크롤링을 접근하는 방법도 다 다릅니다.  
+그 대신, 내가 1,2,3 이라는 크롤링 프로그램 예제를 만들어 봤다면, 그 때 사용 했던 방법으로 새로운 사이트에 적용 해보는거죠. 
+그래서, 내가 원하는 크롤링 예제가 아니더라도 그 안에 쓰인 스킬들에 집중을 하셔야 해요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -391,6 +487,12 @@
       <name val="나눔바른고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -750,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,16 +948,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -889,6 +981,35 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1110,29 +1231,29 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="25" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="25"/>
+    <col min="2" max="2" width="15.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="24"/>
@@ -1184,7 +1305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27" t="s">
@@ -1202,7 +1323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="24" t="s">
@@ -1220,7 +1341,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="24"/>
@@ -1236,7 +1357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>48</v>
       </c>
@@ -1252,7 +1373,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
@@ -1262,7 +1383,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="24"/>
@@ -1272,7 +1393,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="24"/>
@@ -1282,7 +1403,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="24"/>
@@ -1292,7 +1413,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="24"/>
@@ -1302,7 +1423,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="24"/>
@@ -1312,7 +1433,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="24"/>
@@ -1322,7 +1443,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24"/>
@@ -1332,7 +1453,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24"/>
@@ -1342,7 +1463,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24"/>
@@ -1352,7 +1473,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
@@ -1362,7 +1483,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -1372,7 +1493,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
@@ -1382,7 +1503,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="24"/>
@@ -1392,7 +1513,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="24"/>
@@ -1402,7 +1523,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
@@ -1412,7 +1533,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
@@ -1422,7 +1543,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
@@ -1432,7 +1553,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -1442,7 +1563,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
@@ -1452,7 +1573,7 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -1462,7 +1583,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="24"/>
@@ -1472,7 +1593,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
@@ -1482,7 +1603,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="28"/>
@@ -1492,101 +1613,101 @@
       <c r="G31" s="32"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
@@ -1604,32 +1725,32 @@
   </sheetPr>
   <dimension ref="A1:J894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="25"/>
+    <col min="1" max="1" width="22.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E1"/>
@@ -1642,15 +1763,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="46" t="s">
         <v>46</v>
       </c>
       <c r="E2"/>
@@ -1663,11 +1784,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -1678,13 +1799,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="47"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -1695,13 +1816,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="51" t="s">
+    <row r="5" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -1712,11 +1833,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -1727,195 +1848,195 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="51"/>
+    <row r="8" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="47"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:10" ht="98.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:10" ht="75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="47" t="s">
         <v>60</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+    <row r="10" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+    <row r="11" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:10" ht="156.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="51" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="47"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+    <row r="13" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:10" ht="78.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:10" ht="75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="47"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+    <row r="15" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:10" ht="117.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:10" ht="112.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="51" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="50" t="s">
         <v>71</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+    <row r="17" spans="1:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="195.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:7" ht="186.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51"/>
+    <row r="19" spans="1:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="47"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="98.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:7" ht="93.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="50" t="s">
         <v>73</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="50"/>
+    <row r="21" spans="1:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="46"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:7" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="51" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="50" t="s">
         <v>75</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40"/>
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
@@ -1924,7 +2045,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40"/>
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
@@ -1933,7 +2054,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
@@ -1942,7 +2063,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -1951,7 +2072,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="40"/>
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
@@ -1960,7 +2081,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="40"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -1969,7 +2090,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="26"/>
       <c r="C29" s="24"/>
@@ -1978,7 +2099,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1987,7 +2108,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1996,869 +2117,869 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="13.5" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="13.5" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="13.8" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
@@ -2868,6 +2989,2420 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3CBBC-C947-4470-BC10-F22D5E485F28}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J890"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="I1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="I3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="I4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="I5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:10" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="40"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="40"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="13.8" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="56" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166BAD1A-0E2F-4394-BB1C-0079AE766EF4}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J890"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="I1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="I3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="I4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="I5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:10" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="40"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="40"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="13.8" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="56" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2876,12 +5411,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2895,8 +5430,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2909,8 +5444,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2921,7 +5456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +5470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2949,25 +5484,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2975,7 +5510,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -2989,7 +5524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -2997,7 +5532,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -3005,7 +5540,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -3013,7 +5548,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
@@ -3021,13 +5556,13 @@
       <c r="C15" s="5"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -3035,13 +5570,13 @@
       <c r="C17" s="5"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
@@ -3049,13 +5584,13 @@
       <c r="C19" s="5"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>35</v>
       </c>
@@ -3069,7 +5604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>39</v>
       </c>

--- a/2021작심두달웹크롤링/스크립트/진행스크립트.xlsx
+++ b/2021작심두달웹크롤링/스크립트/진행스크립트.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\스타트코딩\Desktop\main\python\2021작심두달웹크롤링\스크립트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491C854-1A83-4264-90C2-77FFDB7E0504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17826EE-481E-4C6D-B687-AEC37DE8E2F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="3" r:id="rId1"/>
     <sheet name="2주차" sheetId="1" r:id="rId2"/>
     <sheet name="3주차" sheetId="4" r:id="rId3"/>
     <sheet name="4주차" sheetId="5" r:id="rId4"/>
-    <sheet name="관련" sheetId="2" r:id="rId5"/>
+    <sheet name="5주차" sheetId="7" r:id="rId5"/>
+    <sheet name="관련" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2주차'!$A$1:$D$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3주차'!$A$1:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4주차'!$A$1:$D$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'5주차'!$A$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>구분</t>
   </si>
@@ -417,6 +419,67 @@
 그렇기 때문에 크롤링을 접근하는 방법도 다 다릅니다.  
 그 대신, 내가 1,2,3 이라는 크롤링 프로그램 예제를 만들어 봤다면, 그 때 사용 했던 방법으로 새로운 사이트에 적용 해보는거죠. 
 그래서, 내가 원하는 크롤링 예제가 아니더라도 그 안에 쓰인 스킬들에 집중을 하셔야 해요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습과제 체크</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여러분들 실습과제는 잘 마무리 하셨나요? 
+페이징 처리 및 상세페이지 크롤링을 과제로 내드렸는데, 할만 하신 분들도 있었을 거고, 잘 안되시는 분들도 있었을 것 같아요. 특히, 상세 페이지 크롤링 같은 경우 이중 반복문, 반복문이 중첩되서 조금 어려우셨을 거에요. 오늘 한번 같이 만들어 보도록 하겠습니다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 수업순서입니다. 
+첫 째로 , 저번 시간에 openpyxl 사용법만 알려드리고 프로그램에 활용은 못해봤죠? 주식 현재가 엑셀저장 프로그램을 만들어 볼거고. 
+두 번째로, 네이버 지식인 크롤링 4단계구요, 크롤링에서 굉장히 중요한 페이징 처리에 대해 알아보겠습니다. 
+세 번째로, 네이버 지식인 크롤링 5단계, 상세페이지 크롤링 방법에 대해서 알아볼게요.  
+네 번째로, 6단계 인데, 크롤링한 결과를 엑셀에 저장해 볼겁니다. 
+마지막으로, 네이버 뉴스 크롤링 프로그램을 같이 천천히 만들어 보도록할게요. 뉴스 크롤링 꽤 어렵거든요? 뷰티풀 수프의 최종보스과제 라고 생각하고 집중 잘해 주시면 좋겠습니다. 
+실습과제를 미리 해오신 거라, 설명을 구체적으로 하나하나 드리진 않을 거에요. 빠르게 넘어 가는 부분도 있을 텐데, 혹시 이해가 안되는 부분이 있으면 바로바로 질문해 주세요. 질문 안해 주시면 다 이해한걸로 압니다. 아시겠죠?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식현재가 엑셀저장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식 현재가 엑셀저장 프로그램을 만들어 볼게요.
+현재가 부분에 크롤링한 데이터를 저장하는 거였죠? 
+어.. 제가 엑셀결과파일을 공유해 드렸는데, 양식을 다들 직접 만드셨더라구요. 
+양식 다운로드 받으면 되니까 슬랙으로 가보죠.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 지식인 크롤링
+4단계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이징 처리에 대해서 알아 볼겁니다. 크롤링에서 페이징 처리 굉장히 중요하다고 했죠? 
+우리가 지금까지 해왔던 거는, 하나의 페이지에서 데이터를 가져오는 겁니다. 경우에 따라서 페이지가 여러 개 있을 수도 있겠죠? 
+페이징처리를 실습하기 전에 이론적으로 알아야 될게 하나 있습니다. 바로 URL 인데요. 
+URL에 대해서 설명해 드릴게요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 지식인 크롤링
+5단계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네이버지식인 크롤링 5단계, 상세페이지처리 방법에 대해서 알아 보겠습니다. 
+( 부장님께 크롤링 결과 전달 상황극 ) 
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버뉴스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어려워</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4211,7 +4274,7 @@
   </sheetPr>
   <dimension ref="A1:J890"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5403,6 +5466,1217 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCEB4CC-25DD-4C75-B935-C46AF7E19625}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J890"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="I1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="I3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="I4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="I5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="40"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="40"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="13.8" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="56" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/2021작심두달웹크롤링/스크립트/진행스크립트.xlsx
+++ b/2021작심두달웹크롤링/스크립트/진행스크립트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\스타트코딩\Desktop\main\python\2021작심두달웹크롤링\스크립트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17826EE-481E-4C6D-B687-AEC37DE8E2F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC555A3-D7BA-48C5-998E-16978288D1D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="3" r:id="rId1"/>
@@ -18,20 +18,22 @@
     <sheet name="3주차" sheetId="4" r:id="rId3"/>
     <sheet name="4주차" sheetId="5" r:id="rId4"/>
     <sheet name="5주차" sheetId="7" r:id="rId5"/>
-    <sheet name="관련" sheetId="2" r:id="rId6"/>
+    <sheet name="6주차" sheetId="8" r:id="rId6"/>
+    <sheet name="관련" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2주차'!$A$1:$D$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3주차'!$A$1:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4주차'!$A$1:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5주차'!$A$1:$D$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'6주차'!$A$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
   <si>
     <t>구분</t>
   </si>
@@ -480,6 +482,25 @@
   </si>
   <si>
     <t>어려워</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여러분들 벌써 6주차 입니다. 오늘이 지나고 나면은 두번 밖에 안 남았는데요? 
+시간 너무 빨리 가지 않나요??ㅋㅋㅋ 
+자, 저번 네이버 지식인과, 네이버 뉴스 실습과제 난이도가 어땠는지 피드백을 해주시면 좋을 것 같아요~! 
+네이버 뉴스 크롤링의 경우 4단계는 많이 어려웠고, 도전과제 형태로 내드렸구요. 
+나머지는 사실 수업을 잘 따라오고 열심히 하셨다면 할 수 있는 난이도 였을 것 같아요. 
+당연히, 프로그래밍을 처음 하시는 분들을 어려운 내용들이 맞습니다.
+프로그래밍 자체가 쉽진 않아요. 
+그런데 강의 에서 계속 쉬운 내용들만 다룰 순 없잖아요? 쉬운 것만 해서는 막상 내가 원하는 사이트를 크롤링 해보잖아요? 안되요 잘ㅋㅋㅋ
+그래서 강의 후반부에는 크롤링을 할 때 부딛힐 수 있는 문제들에 대해서 다루고 해결방법블 찾는 내용들이 많거든요. 
+이게 기본이 된 상태에서 해야 되는 것 들인데, 최대한 많은 것들을 다루려고 하니 어렵게 느껴질 거에요. 
+길게 설명했는데, 어려운게 맞다, 자괴감 에 빠지거나, 프로그래밍은 내가 할게 아니다 라고 생각X 
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4275,7 +4296,7 @@
   <dimension ref="A1:J890"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4379,7 +4400,7 @@
         <v>56</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5473,8 +5494,8 @@
   </sheetPr>
   <dimension ref="A1:J890"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5578,7 +5599,7 @@
         <v>56</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6677,6 +6698,1217 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47AA12A-13E4-47C4-B9F9-40312B9D3A14}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J890"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="I1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="I3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="I4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="I5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="40"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="40"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="13.8" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="56" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
